--- a/results/agv_logs_M2.xlsx
+++ b/results/agv_logs_M2.xlsx
@@ -467,7 +467,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>10.07806748021044</v>
+        <v>40</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -490,12 +490,12 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.956608263170961</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>11.99128400655236</v>
+        <v>100</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -518,12 +518,12 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.956608263170961</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>11.99128400655236</v>
+        <v>100</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.956608263170961</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/results/agv_logs_M2.xlsx
+++ b/results/agv_logs_M2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,7 +467,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -476,7 +476,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>delivery_start</t>
+          <t>fetch_request</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -490,63 +490,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>100</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>M2</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>delivery_complete</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>J1</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>100</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>M2</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>return_home</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>J1</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>M2</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/results/agv_logs_M2.xlsx
+++ b/results/agv_logs_M2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,7 +467,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>54</v>
+        <v>66.2</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -481,15 +481,419 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>J1</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
+          <t>J17</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr"/>
       <c r="F2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>79.2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>fetch_request</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>J22</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>114.9</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>fetch_request</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>J17</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>127.9</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>fetch_request</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>J21</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>267.1999999999999</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>fetch_request</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>J4</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>312.7</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>fetch_request</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>J26</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>340.0000000000001</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>fetch_request</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>J11</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>355.0000000000001</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>fetch_request</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>J26</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>401.0000000000001</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>fetch_request</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>J7</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>432.7000000000004</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>fetch_request</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>J19</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>445.7000000000004</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>fetch_request</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>J7</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>460.7000000000004</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>fetch_request</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>J21</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>475.7000000000004</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>fetch_request</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>J12</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>521.8000000000009</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>fetch_request</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>J20</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>552.8000000000009</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>fetch_request</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>J23</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>567.8000000000009</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>fetch_request</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>J18</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>624.9000000000012</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>fetch_request</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>J3</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>639.9000000000012</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>fetch_request</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>J23</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="n">
         <v>0</v>
       </c>
     </row>

--- a/results/agv_logs_M2.xlsx
+++ b/results/agv_logs_M2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,7 +467,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>66.2</v>
+        <v>154.1</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -481,7 +481,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>J17</t>
+          <t>J12</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
@@ -491,7 +491,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>79.2</v>
+        <v>704.7</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -505,7 +505,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>J22</t>
+          <t>J21</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
@@ -515,7 +515,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>114.9</v>
+        <v>876.9000000000001</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -529,7 +529,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>J17</t>
+          <t>J23</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
@@ -539,7 +539,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>127.9</v>
+        <v>1401.5</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -553,7 +553,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>J21</t>
+          <t>J9</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
@@ -563,7 +563,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>267.1999999999999</v>
+        <v>1653.899999999999</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -577,7 +577,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>J4</t>
+          <t>J16</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
@@ -587,7 +587,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>312.7</v>
+        <v>1719.999999999999</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -601,7 +601,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>J26</t>
+          <t>J22</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
@@ -611,7 +611,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>340.0000000000001</v>
+        <v>2112.499999999999</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -625,7 +625,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>J11</t>
+          <t>J19</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
@@ -635,7 +635,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>355.0000000000001</v>
+        <v>2284.699999999999</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -649,7 +649,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>J26</t>
+          <t>J8</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
@@ -659,7 +659,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>401.0000000000001</v>
+        <v>3075.699999999998</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -673,7 +673,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>J7</t>
+          <t>J24</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
@@ -683,7 +683,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>432.7000000000004</v>
+        <v>3201.999999999998</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -697,7 +697,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>J19</t>
+          <t>J24</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
@@ -707,7 +707,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>445.7000000000004</v>
+        <v>3282.199999999998</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -721,7 +721,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>J7</t>
+          <t>J14</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
@@ -731,7 +731,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>460.7000000000004</v>
+        <v>3987.299999999997</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -745,7 +745,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>J21</t>
+          <t>J30</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
@@ -755,7 +755,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>475.7000000000004</v>
+        <v>4388.099999999997</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -769,7 +769,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>J12</t>
+          <t>J11</t>
         </is>
       </c>
       <c r="E14" t="inlineStr"/>
@@ -779,7 +779,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>521.8000000000009</v>
+        <v>4548.599999999999</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -793,7 +793,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>J20</t>
+          <t>J11</t>
         </is>
       </c>
       <c r="E15" t="inlineStr"/>
@@ -803,7 +803,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>552.8000000000009</v>
+        <v>4563.599999999999</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -817,7 +817,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>J23</t>
+          <t>J14</t>
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
@@ -827,7 +827,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>567.8000000000009</v>
+        <v>4627</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -841,7 +841,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>J18</t>
+          <t>J15</t>
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
@@ -851,7 +851,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>624.9000000000012</v>
+        <v>4709.1</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -865,35 +865,11 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>J3</t>
+          <t>J6</t>
         </is>
       </c>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>639.9000000000012</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>M2</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>fetch_request</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>J23</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="n">
         <v>0</v>
       </c>
     </row>

--- a/results/agv_logs_M2.xlsx
+++ b/results/agv_logs_M2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,7 +467,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>154.1</v>
+        <v>115.5</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -481,7 +481,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>J12</t>
+          <t>J18</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
@@ -491,7 +491,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>704.7</v>
+        <v>158.1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -505,7 +505,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>J21</t>
+          <t>J16</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
@@ -515,7 +515,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>876.9000000000001</v>
+        <v>196.4999999999999</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -539,7 +539,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1401.5</v>
+        <v>211.4999999999999</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -553,7 +553,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>J9</t>
+          <t>J15</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
@@ -563,7 +563,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1653.899999999999</v>
+        <v>230.8999999999999</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -577,7 +577,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>J16</t>
+          <t>J4</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
@@ -587,7 +587,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1719.999999999999</v>
+        <v>292.8999999999999</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -601,7 +601,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>J22</t>
+          <t>J2</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
@@ -611,7 +611,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2112.499999999999</v>
+        <v>353.8999999999999</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -625,7 +625,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>J19</t>
+          <t>J10</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
@@ -635,7 +635,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2284.699999999999</v>
+        <v>402.3000000000003</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -649,7 +649,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>J8</t>
+          <t>J13</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
@@ -659,7 +659,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3075.699999999998</v>
+        <v>464.2000000000005</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -673,7 +673,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>J24</t>
+          <t>J12</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
@@ -683,7 +683,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>3201.999999999998</v>
+        <v>498.5000000000006</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -697,7 +697,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>J24</t>
+          <t>J13</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
@@ -707,7 +707,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>3282.199999999998</v>
+        <v>511.5000000000006</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -721,7 +721,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>J14</t>
+          <t>J4</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
@@ -731,7 +731,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>3987.299999999997</v>
+        <v>542.5000000000006</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -745,7 +745,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>J30</t>
+          <t>J13</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
@@ -755,7 +755,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>4388.099999999997</v>
+        <v>557.5000000000006</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -769,7 +769,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>J11</t>
+          <t>J24</t>
         </is>
       </c>
       <c r="E14" t="inlineStr"/>
@@ -779,7 +779,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>4548.599999999999</v>
+        <v>572.5000000000006</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -793,7 +793,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>J11</t>
+          <t>J10</t>
         </is>
       </c>
       <c r="E15" t="inlineStr"/>
@@ -803,7 +803,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>4563.599999999999</v>
+        <v>605.400000000001</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -817,7 +817,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>J14</t>
+          <t>J10</t>
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
@@ -827,7 +827,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>4627</v>
+        <v>620.400000000001</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -841,35 +841,11 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>J15</t>
+          <t>J25</t>
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>4709.1</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>M2</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>fetch_request</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>J6</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="n">
         <v>0</v>
       </c>
     </row>
